--- a/Assets/Editor/LocalData/ChangeCalls.xlsx
+++ b/Assets/Editor/LocalData/ChangeCalls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Unity Projects\Interactive Stand\Assets\LocalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pechhenka\Documents\Unity projects\InteractiveStand\Assets\Editor\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>11:00-13:00</t>
-  </si>
-  <si>
-    <t>13:25-13:30</t>
-  </si>
-  <si>
-    <t>12:00-13:00</t>
-  </si>
-  <si>
-    <t>20.08.2019</t>
-  </si>
-  <si>
-    <t>25.08.2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>22.10.2019-24.10.2019</t>
+  </si>
+  <si>
+    <t>9:00-09:30</t>
+  </si>
+  <si>
+    <t>09:40-10:10</t>
+  </si>
+  <si>
+    <t>10:25-10:55</t>
+  </si>
+  <si>
+    <t>11:15-11:45</t>
+  </si>
+  <si>
+    <t>12:05-12:35</t>
+  </si>
+  <si>
+    <t>12:50-13:20</t>
+  </si>
+  <si>
+    <t>13:30-14:00</t>
+  </si>
+  <si>
+    <t>14:10-14:40</t>
   </si>
 </sst>
 </file>
@@ -357,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A10"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,28 +384,49 @@
     <col min="5" max="1025" width="8.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
